--- a/medicine/Enfance/Les_Aventures_de_Camille/Les_Aventures_de_Camille.xlsx
+++ b/medicine/Enfance/Les_Aventures_de_Camille/Les_Aventures_de_Camille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Aventures de Camille est une série de livres illustrés pour enfants créée en 2000 par Nancy Delvaux et Aline de Pétigny et éditée par Hemma. Il existe 43 histoires.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Camille est une petite fille de trois ans aux couettes rousses ; elle a pour ami inséparable Nounours. Elle va à la maternelle avec ses amis Maxime, Bérénice, et d'autres. Elle connaît bien des mésaventures mais aussi des moments de joie. Plus tard, elle sera grande sœur et aura un petit frère. Ce dernier grandira et ce qui rendra Camille jalouse.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Camille : Personnage principal de l'histoire, toujours avec Nounours. Elle a 3 ans.
 Bérénice : Elle a trois ans et est la meilleure amie de Camille. Malheureusement, dès le premier livre, elle a des problèmes urinaires qui va lui valoir le surnom de Bébé. Sa mère ne l'acceptant pas, elle lui remet des couches et lui donne le biberon. Camille a eu la chance d'éviter ce genre de choses.
@@ -580,7 +596,9 @@
           <t>Numéros</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Camille a fait pipi dans sa culotte
 Camille a fait un cauchemar
@@ -652,7 +670,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">http://www.images-chapitre.com/ima1/original/490/22562490_10685552.jpg
 http://www.renaud-bray.com/Livres_Produit.aspx?id=1006799&amp;def=Camille+a+fait+pipi+dans+sa+culotte%2CDELVAUX%2C+NANCY%2CP%C3%89TIGNY%2C+ALINE+DE%2C9782508002106
